--- a/eve-backend/EVE-Backend.test/testExileFolder/basic(meer tekst dan headers.xlsx
+++ b/eve-backend/EVE-Backend.test/testExileFolder/basic(meer tekst dan headers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\testexelfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scram Schipping\source\repos\IvarOt\EVE-Backend\eve-backend\EVE-Backend.test\testExileFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7B7516-33B4-46A7-B14A-3885A5EBC85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2F6C06-2A83-4B5D-9E7C-B9E622390596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9420" tabRatio="144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -462,19 +462,19 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F2" sqref="E1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="6" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -486,7 +486,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
